--- a/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
+++ b/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\BatiaRepository\SistemaVentasBatia\Layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB99D1-C916-4C64-8674-20442053AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE3EFE-695D-478D-970B-978FA78137D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-170" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="345" windowWidth="28770" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Dia fin</t>
   </si>
@@ -74,13 +74,31 @@
   </si>
   <si>
     <t>Domingos(1:SI,0:No)</t>
+  </si>
+  <si>
+    <t>Hr fin 2</t>
+  </si>
+  <si>
+    <t>Hr inicio 2</t>
+  </si>
+  <si>
+    <t>Dia inicio 2</t>
+  </si>
+  <si>
+    <t>Dia fin 2</t>
+  </si>
+  <si>
+    <t>Dia Descanso</t>
+  </si>
+  <si>
+    <t>Cubredescanso(1:SI,0:No)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +114,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,16 +161,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,61 +475,81 @@
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -506,7 +576,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,10 +585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
+++ b/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE3EFE-695D-478D-970B-978FA78137D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61655EA3-2520-4BCD-B610-0DCEFFDD0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="345" windowWidth="28770" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Dia fin</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Cubredescanso(1:SI,0:No)</t>
+  </si>
+  <si>
+    <t>Incluye Producto(1:SI,0:No)</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +485,10 @@
     <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -548,8 +552,11 @@
       <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -575,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E919B3-B780-4274-AF92-1A2CD856599F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
+++ b/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61655EA3-2520-4BCD-B610-0DCEFFDD0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15D4C4-BF95-4625-84DA-19210ECAEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
+++ b/SistemaVentasBatia/Layouts/LayoutPlantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15D4C4-BF95-4625-84DA-19210ECAEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55EA460-1648-447F-B5FB-C55E7D5708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Dia fin</t>
   </si>
@@ -580,26 +580,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E919B3-B780-4274-AF92-1A2CD856599F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
   </sheetData>
